--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha1F-HW35.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha1F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>0.9947028980060418</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9801883432228856</v>
+      </c>
+      <c r="D16">
+        <v>1.059928533930848</v>
+      </c>
+      <c r="E16">
+        <v>0.9808058266454883</v>
+      </c>
+      <c r="F16">
+        <v>0.9801883432228856</v>
+      </c>
+      <c r="G16">
+        <v>1.032208412466209</v>
+      </c>
+      <c r="H16">
+        <v>0.9500791628242369</v>
+      </c>
+      <c r="I16">
+        <v>0.9790772385206749</v>
+      </c>
+      <c r="J16">
+        <v>1.059928533930848</v>
+      </c>
+      <c r="K16">
+        <v>1.020367180288168</v>
+      </c>
+      <c r="L16">
+        <v>1.000277761755527</v>
+      </c>
+      <c r="M16">
+        <v>0.9970479196017238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9801883432228856</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha1F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9489560000000004</v>
+        <v>0.9801883432228856</v>
       </c>
       <c r="D10">
-        <v>1.141036000000001</v>
+        <v>1.059928533930848</v>
       </c>
       <c r="E10">
-        <v>0.9595840000000003</v>
+        <v>0.9808058266454883</v>
       </c>
       <c r="F10">
-        <v>0.9489560000000004</v>
+        <v>0.9801883432228856</v>
       </c>
       <c r="G10">
-        <v>1.082087999999997</v>
+        <v>1.032208412466209</v>
       </c>
       <c r="H10">
-        <v>0.8887360000000017</v>
+        <v>0.9500791628242369</v>
       </c>
       <c r="I10">
-        <v>0.9589560000000005</v>
+        <v>0.9790772385206749</v>
       </c>
       <c r="J10">
-        <v>1.141036000000001</v>
+        <v>1.059928533930848</v>
       </c>
       <c r="K10">
-        <v>1.050310000000001</v>
+        <v>1.020367180288168</v>
       </c>
       <c r="L10">
-        <v>0.9996330000000005</v>
+        <v>1.000277761755527</v>
       </c>
       <c r="M10">
-        <v>0.9965593333333335</v>
+        <v>0.9970479196017238</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.92</v>
+        <v>1.003524112310321</v>
       </c>
       <c r="D11">
-        <v>1.25</v>
+        <v>0.9437060638926812</v>
       </c>
       <c r="E11">
-        <v>0.93</v>
+        <v>1.010503234934641</v>
       </c>
       <c r="F11">
-        <v>0.92</v>
+        <v>1.003524112310321</v>
       </c>
       <c r="G11">
-        <v>1.15</v>
+        <v>0.9655626310124884</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>1.034399559666349</v>
       </c>
       <c r="I11">
-        <v>0.93</v>
+        <v>1.009343399976948</v>
       </c>
       <c r="J11">
-        <v>1.25</v>
+        <v>0.9437060638926812</v>
       </c>
       <c r="K11">
-        <v>1.09</v>
+        <v>0.9771046494136613</v>
       </c>
       <c r="L11">
-        <v>1.005</v>
+        <v>0.9903143808619912</v>
       </c>
       <c r="M11">
-        <v>0.9966666666666666</v>
+        <v>0.9945065002989047</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9511350392832012</v>
+        <v>1.003383937007914</v>
       </c>
       <c r="D12">
-        <v>1.144630985523201</v>
+        <v>0.9441006737053386</v>
       </c>
       <c r="E12">
-        <v>0.9573382858752021</v>
+        <v>1.010408260722051</v>
       </c>
       <c r="F12">
-        <v>0.9511350392832012</v>
+        <v>1.003383937007914</v>
       </c>
       <c r="G12">
-        <v>1.084763097907189</v>
+        <v>0.9657595508081134</v>
       </c>
       <c r="H12">
-        <v>0.8836034729984052</v>
+        <v>1.034237759785192</v>
       </c>
       <c r="I12">
-        <v>0.9574963456000006</v>
+        <v>1.009244342045347</v>
       </c>
       <c r="J12">
-        <v>1.144630985523201</v>
+        <v>0.9441006737053386</v>
       </c>
       <c r="K12">
-        <v>1.050984635699201</v>
+        <v>0.9772544672136947</v>
       </c>
       <c r="L12">
-        <v>1.001059837491201</v>
+        <v>0.990319202110804</v>
       </c>
       <c r="M12">
-        <v>0.9964945378645332</v>
+        <v>0.9945224206789925</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.995803421894179</v>
+        <v>1.003481014248723</v>
       </c>
       <c r="D13">
-        <v>0.9953010795894998</v>
+        <v>0.9438767101302591</v>
       </c>
       <c r="E13">
-        <v>0.9953074991545741</v>
+        <v>1.010467632307549</v>
       </c>
       <c r="F13">
-        <v>0.995803421894179</v>
+        <v>1.003481014248723</v>
       </c>
       <c r="G13">
-        <v>0.9958775954017556</v>
+        <v>0.9656233794518544</v>
       </c>
       <c r="H13">
-        <v>0.9950023368591687</v>
+        <v>1.034381367540202</v>
       </c>
       <c r="I13">
-        <v>0.9954014828327942</v>
+        <v>1.009307026785599</v>
       </c>
       <c r="J13">
-        <v>0.9953010795894998</v>
+        <v>0.9438767101302591</v>
       </c>
       <c r="K13">
-        <v>0.995304289372037</v>
+        <v>0.9771721712189041</v>
       </c>
       <c r="L13">
-        <v>0.9955538556331079</v>
+        <v>0.9903265927338135</v>
       </c>
       <c r="M13">
-        <v>0.9954489026219951</v>
+        <v>0.9945228550773644</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9985015000471089</v>
+        <v>0.9489560000000004</v>
       </c>
       <c r="D14">
-        <v>0.985544179244658</v>
+        <v>1.141036000000001</v>
       </c>
       <c r="E14">
-        <v>0.9979527199521581</v>
+        <v>0.9595840000000003</v>
       </c>
       <c r="F14">
-        <v>0.9985015000471089</v>
+        <v>0.9489560000000004</v>
       </c>
       <c r="G14">
-        <v>0.9908930671588113</v>
+        <v>1.082087999999997</v>
       </c>
       <c r="H14">
-        <v>1.001199567704906</v>
+        <v>0.8887360000000017</v>
       </c>
       <c r="I14">
-        <v>0.9977418191274302</v>
+        <v>0.9589560000000005</v>
       </c>
       <c r="J14">
-        <v>0.985544179244658</v>
+        <v>1.141036000000001</v>
       </c>
       <c r="K14">
-        <v>0.991748449598408</v>
+        <v>1.050310000000001</v>
       </c>
       <c r="L14">
-        <v>0.9951249748227584</v>
+        <v>0.9996330000000005</v>
       </c>
       <c r="M14">
-        <v>0.9953054755391788</v>
+        <v>0.9965593333333335</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.001818482498842</v>
+        <v>0.92</v>
       </c>
       <c r="D15">
-        <v>0.9663632798602781</v>
+        <v>1.25</v>
       </c>
       <c r="E15">
-        <v>1.002538476583146</v>
+        <v>0.93</v>
       </c>
       <c r="F15">
-        <v>1.001818482498842</v>
+        <v>0.92</v>
       </c>
       <c r="G15">
-        <v>0.9789405503306953</v>
+        <v>1.15</v>
       </c>
       <c r="H15">
-        <v>1.015319587876603</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
-        <v>1.003237010886687</v>
+        <v>0.93</v>
       </c>
       <c r="J15">
-        <v>0.9663632798602781</v>
+        <v>1.25</v>
       </c>
       <c r="K15">
-        <v>0.984450878221712</v>
+        <v>1.09</v>
       </c>
       <c r="L15">
-        <v>0.993134680360277</v>
+        <v>1.005</v>
       </c>
       <c r="M15">
-        <v>0.9947028980060418</v>
+        <v>0.9966666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9801883432228856</v>
+        <v>0.9511350392832012</v>
       </c>
       <c r="D16">
-        <v>1.059928533930848</v>
+        <v>1.144630985523201</v>
       </c>
       <c r="E16">
-        <v>0.9808058266454883</v>
+        <v>0.9573382858752021</v>
       </c>
       <c r="F16">
-        <v>0.9801883432228856</v>
+        <v>0.9511350392832012</v>
       </c>
       <c r="G16">
-        <v>1.032208412466209</v>
+        <v>1.084763097907189</v>
       </c>
       <c r="H16">
-        <v>0.9500791628242369</v>
+        <v>0.8836034729984052</v>
       </c>
       <c r="I16">
-        <v>0.9790772385206749</v>
+        <v>0.9574963456000006</v>
       </c>
       <c r="J16">
-        <v>1.059928533930848</v>
+        <v>1.144630985523201</v>
       </c>
       <c r="K16">
-        <v>1.020367180288168</v>
+        <v>1.050984635699201</v>
       </c>
       <c r="L16">
-        <v>1.000277761755527</v>
+        <v>1.001059837491201</v>
       </c>
       <c r="M16">
-        <v>0.9970479196017238</v>
+        <v>0.9964945378645332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.995803421894179</v>
+      </c>
+      <c r="D17">
+        <v>0.9953010795894998</v>
+      </c>
+      <c r="E17">
+        <v>0.9953074991545741</v>
+      </c>
+      <c r="F17">
+        <v>0.995803421894179</v>
+      </c>
+      <c r="G17">
+        <v>0.9958775954017556</v>
+      </c>
+      <c r="H17">
+        <v>0.9950023368591687</v>
+      </c>
+      <c r="I17">
+        <v>0.9954014828327942</v>
+      </c>
+      <c r="J17">
+        <v>0.9953010795894998</v>
+      </c>
+      <c r="K17">
+        <v>0.995304289372037</v>
+      </c>
+      <c r="L17">
+        <v>0.9955538556331079</v>
+      </c>
+      <c r="M17">
+        <v>0.9954489026219951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9985015000471089</v>
+      </c>
+      <c r="D18">
+        <v>0.985544179244658</v>
+      </c>
+      <c r="E18">
+        <v>0.9979527199521581</v>
+      </c>
+      <c r="F18">
+        <v>0.9985015000471089</v>
+      </c>
+      <c r="G18">
+        <v>0.9908930671588113</v>
+      </c>
+      <c r="H18">
+        <v>1.001199567704906</v>
+      </c>
+      <c r="I18">
+        <v>0.9977418191274302</v>
+      </c>
+      <c r="J18">
+        <v>0.985544179244658</v>
+      </c>
+      <c r="K18">
+        <v>0.991748449598408</v>
+      </c>
+      <c r="L18">
+        <v>0.9951249748227584</v>
+      </c>
+      <c r="M18">
+        <v>0.9953054755391788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.001818482498842</v>
+      </c>
+      <c r="D19">
+        <v>0.9663632798602781</v>
+      </c>
+      <c r="E19">
+        <v>1.002538476583146</v>
+      </c>
+      <c r="F19">
+        <v>1.001818482498842</v>
+      </c>
+      <c r="G19">
+        <v>0.9789405503306953</v>
+      </c>
+      <c r="H19">
+        <v>1.015319587876603</v>
+      </c>
+      <c r="I19">
+        <v>1.003237010886687</v>
+      </c>
+      <c r="J19">
+        <v>0.9663632798602781</v>
+      </c>
+      <c r="K19">
+        <v>0.984450878221712</v>
+      </c>
+      <c r="L19">
+        <v>0.993134680360277</v>
+      </c>
+      <c r="M19">
+        <v>0.9947028980060418</v>
       </c>
     </row>
   </sheetData>
